--- a/diagrams/macrohardDictaphone_Manual_Testing.xlsx
+++ b/diagrams/macrohardDictaphone_Manual_Testing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andraz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C939BC1-BFE4-483E-AFB2-14E477EE045C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C640ACA-3AAA-4EA3-B6B8-CB6E23BD1B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEST 1" sheetId="1" r:id="rId1"/>
@@ -410,7 +410,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
     <xf numFmtId="22" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
@@ -431,11 +431,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -454,45 +487,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -566,55 +560,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>169050</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1001567</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E9AC739-08E4-CE08-6737-D67F57211620}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect t="4949" b="6037"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8979675" y="4762500"/>
-          <a:ext cx="3832892" cy="7581900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>99975</xdr:colOff>
       <xdr:row>25</xdr:row>
@@ -640,7 +585,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -665,23 +610,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1212056</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>136072</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>391311</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>768344</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>176893</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD86C340-3F02-F818-744D-3305E32F40DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5624EE38-0E68-CC0B-7D81-A909C145D4F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -689,15 +634,16 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:srcRect t="6526" b="12443"/>
-        <a:stretch/>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13023056" y="4705350"/>
-          <a:ext cx="4237030" cy="7629525"/>
+          <a:off x="8831036" y="4884965"/>
+          <a:ext cx="3775522" cy="7660821"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -714,22 +660,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>122463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>466702</xdr:colOff>
+      <xdr:colOff>225483</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E640493-5E44-CDD0-640A-F80CCF06D475}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{047AE9E0-2B5C-65FE-49E8-3635C315528A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -737,21 +683,16 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect t="4356" b="7102"/>
-        <a:stretch/>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="85725" y="4581525"/>
-          <a:ext cx="3819502" cy="7515225"/>
+          <a:off x="0" y="4490356"/>
+          <a:ext cx="3668090" cy="7497537"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -763,22 +704,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>626251</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:colOff>421820</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>257533</xdr:colOff>
+      <xdr:colOff>113953</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:rowOff>40821</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06E76083-4BAF-C503-5621-EDB7C78FE217}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12BDCF7E-5F84-FA25-5FB2-63AD84511BBC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -786,21 +727,16 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect t="5137" b="5943"/>
-        <a:stretch/>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4064776" y="4552949"/>
-          <a:ext cx="3803232" cy="7515225"/>
+          <a:off x="3864427" y="4680857"/>
+          <a:ext cx="3855919" cy="7347857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -812,22 +748,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>452401</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>231321</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>875518</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>898072</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>122783</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA91E86C-3E5B-1A08-3DE3-4E8E6E77FDF3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1D93A41-50D7-5985-6181-6B1B5A3688C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -835,21 +771,16 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect t="4782" b="5539"/>
-        <a:stretch/>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8062876" y="4543425"/>
-          <a:ext cx="3785442" cy="7543800"/>
+          <a:off x="7837714" y="4667250"/>
+          <a:ext cx="4027715" cy="7633926"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -860,23 +791,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>27212</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>136071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>546933</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>353785</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>9819</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13">
+        <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A2A4D15-773F-4516-9AFA-7416C910B35E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA094037-9C34-9B1D-9F90-EC01F6B199B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -884,21 +815,16 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect t="5492" b="5398"/>
-        <a:stretch/>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11972925" y="4600575"/>
-          <a:ext cx="3775908" cy="7477125"/>
+          <a:off x="12178391" y="4694464"/>
+          <a:ext cx="4000501" cy="7684248"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -912,55 +838,6 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1389221</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{845B2204-EAD3-EE4D-D805-3DEE4487EA88}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect t="4582" b="5269"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="66675" y="4752975"/>
-          <a:ext cx="3741896" cy="7496175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -988,7 +865,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1037,7 +914,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1086,7 +963,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1100,6 +977,50 @@
         <a:xfrm>
           <a:off x="12003825" y="4686300"/>
           <a:ext cx="3785805" cy="7486650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1370884</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>801</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{528164A4-82FC-4F2E-835B-210C11EF6253}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123265" y="4740088"/>
+          <a:ext cx="3668090" cy="7497537"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1376,8 +1297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U52" sqref="U52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1395,138 +1316,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="11"/>
       <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="27" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="21" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="21" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="27">
+      <c r="I2" s="11"/>
+      <c r="J2" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K2" s="28"/>
+      <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="11"/>
       <c r="F6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="24" t="s">
+      <c r="H6" s="17"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="25"/>
+      <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="11"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="11"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>3</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="11"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>4</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="11"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>5</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="11"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1539,161 +1460,138 @@
       <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19" t="s">
+      <c r="C16" s="21"/>
+      <c r="D16" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="18" t="s">
+      <c r="E16" s="22"/>
+      <c r="F16" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18" t="s">
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
     </row>
     <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>1</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="10" t="s">
+      <c r="C18" s="16"/>
+      <c r="D18" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="12" t="s">
+      <c r="E18" s="16"/>
+      <c r="F18" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="15" t="s">
+      <c r="G18" s="24"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="16"/>
-      <c r="K18" s="17"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="28"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>2</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="10" t="s">
+      <c r="C19" s="16"/>
+      <c r="D19" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="12" t="s">
+      <c r="E19" s="16"/>
+      <c r="F19" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="15" t="s">
+      <c r="G19" s="24"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J19" s="16"/>
-      <c r="K19" s="17"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="28"/>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>3</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="10" t="s">
+      <c r="C20" s="16"/>
+      <c r="D20" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="12" t="s">
+      <c r="E20" s="16"/>
+      <c r="F20" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="15" t="s">
+      <c r="G20" s="24"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J20" s="16"/>
-      <c r="K20" s="17"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="28"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>4</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="10" t="s">
+      <c r="C21" s="16"/>
+      <c r="D21" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12" t="s">
+      <c r="E21" s="16"/>
+      <c r="F21" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15" t="s">
+      <c r="G21" s="24"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="16"/>
-      <c r="K21" s="17"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="28"/>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="F18:H18"/>
@@ -1710,6 +1608,29 @@
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="I20:K20"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1720,8 +1641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6FCCB3F-5121-48D8-8C5A-3934CC489A92}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S59" sqref="S59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1739,138 +1660,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="11"/>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="27" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="21" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="21" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="27">
+      <c r="I2" s="11"/>
+      <c r="J2" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K2" s="28"/>
+      <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="11"/>
       <c r="F6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="24" t="s">
+      <c r="H6" s="17"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="25"/>
+      <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="11"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="11"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>3</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="11"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>4</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="11"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>5</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="11"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
       <c r="F13" s="8"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -1882,11 +1803,11 @@
       <c r="A14" s="4">
         <v>6</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="11"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
       <c r="F14" s="8"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
@@ -1906,143 +1827,151 @@
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19" t="s">
+      <c r="C17" s="21"/>
+      <c r="D17" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="18" t="s">
+      <c r="E17" s="22"/>
+      <c r="F17" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18" t="s">
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
     </row>
     <row r="18" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>1</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="10" t="s">
+      <c r="C19" s="16"/>
+      <c r="D19" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="12" t="s">
+      <c r="E19" s="16"/>
+      <c r="F19" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="15" t="s">
+      <c r="G19" s="24"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J19" s="16"/>
-      <c r="K19" s="17"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="28"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>2</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="10" t="s">
+      <c r="C20" s="16"/>
+      <c r="D20" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="12" t="s">
+      <c r="E20" s="16"/>
+      <c r="F20" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="15" t="s">
+      <c r="G20" s="24"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J20" s="16"/>
-      <c r="K20" s="17"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="28"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>3</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="10" t="s">
+      <c r="C21" s="16"/>
+      <c r="D21" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12" t="s">
+      <c r="E21" s="16"/>
+      <c r="F21" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15" t="s">
+      <c r="G21" s="24"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="16"/>
-      <c r="K21" s="17"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="28"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>4</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="10" t="s">
+      <c r="C22" s="16"/>
+      <c r="D22" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12" t="s">
+      <c r="E22" s="16"/>
+      <c r="F22" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="15" t="s">
+      <c r="G22" s="24"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="16"/>
-      <c r="K22" s="17"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
     <mergeCell ref="I17:K18"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
@@ -2057,24 +1986,16 @@
     <mergeCell ref="B17:C18"/>
     <mergeCell ref="D17:E18"/>
     <mergeCell ref="F17:H18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2086,8 +2007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD45D13-8D08-4442-8D21-B8920CBB34C0}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2105,154 +2026,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="11"/>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="27" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="21" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="21" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="27">
+      <c r="I2" s="11"/>
+      <c r="J2" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K2" s="28"/>
+      <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="11"/>
       <c r="F6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="24" t="s">
+      <c r="H6" s="17"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="25"/>
+      <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="11"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="11"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>3</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="11"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>4</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="11"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>5</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="11"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>6</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="11"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2266,132 +2187,132 @@
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19" t="s">
+      <c r="C18" s="21"/>
+      <c r="D18" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="18" t="s">
+      <c r="E18" s="22"/>
+      <c r="F18" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18" t="s">
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
     </row>
     <row r="19" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>1</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="10" t="s">
+      <c r="C20" s="16"/>
+      <c r="D20" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="12" t="s">
+      <c r="E20" s="16"/>
+      <c r="F20" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="15" t="s">
+      <c r="G20" s="24"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J20" s="16"/>
-      <c r="K20" s="17"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="28"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>2</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="10" t="s">
+      <c r="C21" s="16"/>
+      <c r="D21" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12" t="s">
+      <c r="E21" s="16"/>
+      <c r="F21" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15" t="s">
+      <c r="G21" s="24"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="16"/>
-      <c r="K21" s="17"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="28"/>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>3</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="10" t="s">
+      <c r="C22" s="16"/>
+      <c r="D22" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12" t="s">
+      <c r="E22" s="16"/>
+      <c r="F22" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="15" t="s">
+      <c r="G22" s="24"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="16"/>
-      <c r="K22" s="17"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="28"/>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>4</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="10" t="s">
+      <c r="C23" s="16"/>
+      <c r="D23" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12" t="s">
+      <c r="E23" s="16"/>
+      <c r="F23" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15" t="s">
+      <c r="G23" s="24"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J23" s="16"/>
-      <c r="K23" s="17"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="28"/>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2400,14 +2321,22 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
     <mergeCell ref="I18:K19"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
@@ -2424,22 +2353,14 @@
     <mergeCell ref="B18:C19"/>
     <mergeCell ref="D18:E19"/>
     <mergeCell ref="F18:H19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
